--- a/testdata/mapped_data.xlsx
+++ b/testdata/mapped_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
     <t>pnr</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>2018-12-12</t>
+  </si>
+  <si>
+    <t>202002022222</t>
   </si>
 </sst>
 </file>
@@ -457,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +541,14 @@
         <v>37.5</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
